--- a/medicine/Enfance/Patrick_Cauvin/Patrick_Cauvin.xlsx
+++ b/medicine/Enfance/Patrick_Cauvin/Patrick_Cauvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Cauvin, pseudonyme de Claude Klotz, né le 6 octobre 1932 à Marseille et mort le 16 août 2010 à Paris 12e, est un scénariste et romancier français[1],[2]. Il a publié aussi bien sous son vrai nom que sous son nom de plume.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Cauvin, pseudonyme de Claude Klotz, né le 6 octobre 1932 à Marseille et mort le 16 août 2010 à Paris 12e, est un scénariste et romancier français,. Il a publié aussi bien sous son vrai nom que sous son nom de plume.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Joseph Klotz et de Victoria Cauvin[4], son père, cheminot, fait de lui « un intoxiqué de l’écran », en l’emmenant très tôt voir une multitude de films américains. Humphrey Bogart incarne alors, à ses yeux, l’image emblématique du cinéma.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Joseph Klotz et de Victoria Cauvin, son père, cheminot, fait de lui « un intoxiqué de l’écran », en l’emmenant très tôt voir une multitude de films américains. Humphrey Bogart incarne alors, à ses yeux, l’image emblématique du cinéma.
 Il monte à Paris en 1948(?) et amorce des études peu fructueuses, jusqu'à ce qu'il découvre la philosophie.
 De 1951 à 1954, Claude Klotz poursuit ses études à la Sorbonne, où il obtient une licence de philosophie. À son retour de la guerre d'Algérie, il se destine à l'enseignement. De 1964 à 1976, il enseigne les lettres dans un lycée de la région parisienne, le lycée technique Eugène-Ronceray à Bezons et réside dans une HLM à Sarcelles.
-En 1973, il aide Joseph Joffo à écrire le best-seller Un sac de billes[5].
+En 1973, il aide Joseph Joffo à écrire le best-seller Un sac de billes.
 Marqué par la guerre d'Algérie, il écrit des romans noirs sous son vrai nom : une série de treize intrigues policières sanglantes au héros récurrent baptisé Reiner, puis renommé Raner. Lassé de cet univers âpre, Claude Klotz apporte en 1974 une histoire d’amour à son éditeur Jean-Claude Lattès. Ce dernier lui demande de changer de nom s’il espère vendre son roman L’Amour aveugle. Il prend alors le pseudonyme de Patrick Cauvin, le patronyme de sa mère : « J’étais loin d’imaginer que Cauvin battrait Klotz, qu’il vendrait plus de livres, et que cette double identité […] continuerait à désarçonner les gens. »
 En 1977, tandis que Monsieur Papa (publié en 1976) sort sur les écrans, mis en scène par Philippe Monnier avec Daniel Auteuil et Claude Brasseur, E=mc² mon amour, une histoire d’amour entre deux jeunes adolescents surdoués, connaît un succès retentissant. Un an plus tard, cette histoire sera également adaptée pour le cinéma, cette fois-ci par George Roy Hill.
 En 1980, il est rédacteur d’une chronique de cinéma illustrée par le dessinateur Régis Franc, dans le magazine de bande dessinée Pilote.
@@ -530,7 +544,7 @@
 En 1994, Jean-Pierre Cottet, directeur de l’antenne sur France 3, lui demande son aide pour la création de fictions. Il y occupe un rôle de conseiller et assiste les scénaristes sur l’écriture des dialogues. L'année suivante, Patrick Cauvin est invité à donner une conférence dans un centre culturel à Tananarive (Madagascar) pour évoquer son roman Villa Vanille. Le séjour s’avère être cauchemardesque pour l’écrivain. Il découvre, une fois sur place, que la presse locale est unanimement négative à son égard et passe, de peur d’être la cible de bandits de grands chemins, ses journées confiné dans sa chambre d’hôtel.
 Vingt-deux ans après la sortie de E=mc² mon amour, les deux protagonistes, Lauren et Daniel, se retrouvent en 1999 dans Pythagore, je t'adore, qui connaît un franc succès. Alors que le romancier s’était promis de ne jamais écrire de suite, la nostalgie de ses premières intrigues le décide, finalement, à faire revivre ses jeunes héros.
 Avec l’œil d’un journaliste attentif et passionné, il signe en 2001 La Reine du monde, un roman colonial dédié aux peuples africains. L'écrivain s’impose un rythme de travail qui n’excède pas quatre heures d’écriture quotidiennes. Patrick Cauvin se met en 2002 dans la peau de son double, Claude Klotz, en signant un thriller : Le Sang des roses. « C’est toujours l’histoire qui décide lequel des deux prend la plume. »
-Patrick Cauvin meurt le 16 août 2010 à Paris des suites d'un cancer[6].
+Patrick Cauvin meurt le 16 août 2010 à Paris des suites d'un cancer.
 </t>
         </is>
       </c>
@@ -561,9 +575,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sous le nom de Patrick Cauvin
-L'Amour aveugle, Éditions Jean-Claude Lattès, 1974
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sous le nom de Patrick Cauvin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Amour aveugle, Éditions Jean-Claude Lattès, 1974
 Monsieur Papa, Éditions Jean-Claude Lattès, 1976
 E=mc² mon amour, Éditions Jean-Claude Lattès, 1977
 Pourquoi pas nous ?, Éditions Jean-Claude Lattès, 1978
@@ -612,9 +634,47 @@
 « Raner no XI » Flic-flash
 « Raner no XII » Karaté-caramel
 « Raner no XIII » Dingo-dague
-Le Sang des roses, Éditions Albin Michel, « Spécial Suspense », 2002
-Sous le nom de Claude Klotz
-Les Classes, Christian Bourgois, 1968
+Le Sang des roses, Éditions Albin Michel, « Spécial Suspense », 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sous le nom de Claude Klotz</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Classes, Christian Bourgois, 1968
 Sbang-sbang, Christian Bourgois, 1969
 Et les cris de la fée, Christian Bourgois, 1970
 Les Innommables, Christian Bourgois, 1971 (en collaboration avec Jean Gourmelin)
@@ -643,60 +703,338 @@
 Killer Kid, Éditions Albin Michel, 1989
 Kobar, Éditions Albin Michel, 1992
 Iaroslav, Éditions Albin Michel, 1998
-L'Homme du train, Éditions Albin Michel, 2002
-Sous le nom de Raymond Wermelinger
-Soyez donc maçon…, Baudinière, 1978, Roman de S-F humoristique en forme de jeu littéraire, préfacé par Claude Klotz, où Patrick Cauvin intervient comme conseiller littéraire de l'auteur Raymond Wermelinger à l'intérieur même du texte[7]..)
-Romans de littérature d'enfance et de jeunesse
-Drôle de samedi soir !, Hachette, « Toboggan », 1979
+L'Homme du train, Éditions Albin Michel, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Raymond Wermelinger</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Soyez donc maçon…, Baudinière, 1978, Roman de S-F humoristique en forme de jeu littéraire, préfacé par Claude Klotz, où Patrick Cauvin intervient comme conseiller littéraire de l'auteur Raymond Wermelinger à l'intérieur même du texte..)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Drôle de samedi soir !, Hachette, « Toboggan », 1979
 Rue de la chance, ill. Michel Guiré-Vaka, Hachette, « Éclipse », 1979
 Le Mois de mai de monsieur Dobichon, ill. Michel Guiré-Vaka, Hachette, « Éclipse », 1980
-Une seconde chance, Plon jeunesse, 2010
-Recueil de nouvelles
-Le Livre du roman, Éditions Jean-Claude Lattès, 1994
-Essais
-Michel Sardou, Éditions Albin Michel, 1985
+Une seconde chance, Plon jeunesse, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Livre du roman, Éditions Jean-Claude Lattès, 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Michel Sardou, Éditions Albin Michel, 1985
 Madonna !, Éditions de l'Étoile, 1983 (photographies de P. Zachmann)
-Dictionnaire amoureux des héros, Plon, 2005
-Théâtre
-Héloïse de Patrick Cauvin (2008), mise en scène de Patrice Leconte, avec Rufus, Mélanie Bernier, Bernard Alane, Agathe Natanson, Isabelle Spade, Laurent Gendron
-Scénarios de films
-Le Mari de la coiffeuse de Patrice Leconte, 1990
+Dictionnaire amoureux des héros, Plon, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Héloïse de Patrick Cauvin (2008), mise en scène de Patrice Leconte, avec Rufus, Mélanie Bernier, Bernard Alane, Agathe Natanson, Isabelle Spade, Laurent Gendron</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Scénarios de films</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Mari de la coiffeuse de Patrice Leconte, 1990
 Félix et Lola de Patrice Leconte, 2001
-L'Homme du train de Patrice Leconte, 2002
-Scénarios de bandes dessinées
-Bellagamba (dessins de Max Cabanes), Casterman, coll. « Grand format »
+L'Homme du train de Patrice Leconte, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Scénarios de bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bellagamba (dessins de Max Cabanes), Casterman, coll. « Grand format »
 La Chasse aux ombres, 1999
-Les Saisonniers, 2002
-Acteur
-Les Cinq Dernières Minutes : La ballade de Menardeau de Maurice Frydland, 1988</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Patrick_Cauvin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Les Saisonniers, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Cinq Dernières Minutes : La ballade de Menardeau de Maurice Frydland, 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Cauvin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910686-45-1, OCLC 315873361), p. 106 (Claude Klotz) et 620 (Raner).</t>
         </is>
